--- a/data_files/excel_data/economic_data.xlsx
+++ b/data_files/excel_data/economic_data.xlsx
@@ -1392,11 +1392,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C584" sqref="C584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
